--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635DC501-284B-4FB6-8D17-529790874C02}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EC6167-258A-4044-A673-08B5398A392B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="indicadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicadores!$A$1:$L$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicadores!$A$1:$L$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
   <si>
     <t>Cartões</t>
   </si>
@@ -338,16 +338,7 @@
     <t>MOB</t>
   </si>
   <si>
-    <t>PPTO_Taxa Impositiva</t>
-  </si>
-  <si>
-    <t>PPTO_Eficiência</t>
-  </si>
-  <si>
     <t>provisao</t>
-  </si>
-  <si>
-    <t>Cheque Emp/Esp/ADP</t>
   </si>
   <si>
     <t>rwa</t>
@@ -394,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -421,9 +412,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,9 +750,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
-  <dimension ref="A1:N172"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -821,7 +812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -859,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -897,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -935,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -973,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1011,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1049,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1087,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -1125,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1201,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1315,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1353,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1402,22 +1393,22 @@
         <v>71</v>
       </c>
       <c r="D17" s="5">
-        <v>0.89500000000000002</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="E17" s="5">
-        <v>0.92800000000000005</v>
+        <v>0.9284</v>
       </c>
       <c r="F17" s="5">
-        <v>0.79900000000000004</v>
+        <v>0.79920000000000002</v>
       </c>
       <c r="G17" s="5">
-        <v>1.7470000000000001</v>
+        <v>1.7473000000000001</v>
       </c>
       <c r="H17" s="5">
-        <v>1.859</v>
+        <v>1.8585</v>
       </c>
       <c r="I17" s="5">
-        <v>1.849</v>
+        <v>1.8488</v>
       </c>
       <c r="J17" s="5">
         <v>0.438</v>
@@ -1429,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1440,25 +1431,25 @@
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.17</v>
+        <v>0.17019999999999999</v>
       </c>
       <c r="E18" s="5">
-        <v>0.17699999999999999</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="F18" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="G18" s="5">
-        <v>0.14899999999999999</v>
+        <v>0.1489</v>
       </c>
       <c r="H18" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>0.02</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
@@ -1467,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1478,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="5">
-        <v>0.223</v>
+        <v>0.2233</v>
       </c>
       <c r="E19" s="5">
-        <v>0.22600000000000001</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="F19" s="5">
-        <v>0.22600000000000001</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -1496,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="K19" s="5">
-        <v>0.21099999999999999</v>
+        <v>0.21110000000000001</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -1516,13 +1507,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1534,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K20" s="5">
         <v>0</v>
@@ -1543,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1554,34 +1545,34 @@
         <v>2</v>
       </c>
       <c r="D21" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>1.2E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="G21" s="5">
-        <v>2.3E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>2.4E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>1.2E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="K21" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1592,34 +1583,34 @@
         <v>4</v>
       </c>
       <c r="D22" s="5">
-        <v>9.4E-2</v>
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>9.4E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>5.3999999999999999E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="H22" s="5">
-        <v>3.9E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="K22" s="5">
-        <v>0</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1630,25 +1621,25 @@
         <v>6</v>
       </c>
       <c r="D23" s="5">
-        <v>0.17</v>
+        <v>0.1704</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="H23" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="K23" s="5">
         <v>0</v>
@@ -1657,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1674,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="H24" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
@@ -1695,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1706,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="5">
-        <v>0.33300000000000002</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="E25" s="5">
-        <v>0.36099999999999999</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="F25" s="5">
-        <v>0.81599999999999995</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -1733,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -1750,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="5">
-        <v>0.41</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="G26" s="5">
-        <v>0.16800000000000001</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>0.161</v>
+        <v>1.41E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
@@ -1771,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1788,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>0.41189999999999999</v>
       </c>
       <c r="G27" s="5">
-        <v>0.13800000000000001</v>
+        <v>0.16769999999999999</v>
       </c>
       <c r="H27" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>0.06</v>
+        <v>0.1658</v>
       </c>
       <c r="J27" s="5">
-        <v>0</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K27" s="5">
         <v>0</v>
@@ -1809,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -1829,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>0</v>
+        <v>3.56E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>0</v>
+        <v>4.07E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>0</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -1847,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1867,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <v>0</v>
+        <v>1.14E-2</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J29" s="5">
-        <v>0</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="K29" s="5">
         <v>0</v>
@@ -1885,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1896,34 +1887,34 @@
         <v>5</v>
       </c>
       <c r="D30" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="F30" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="G30" s="5">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K30" s="5">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1934,42 +1925,42 @@
         <v>13</v>
       </c>
       <c r="D31" s="7">
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>8.1000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="7">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
-        <v>0.39300000000000002</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4">
         <v>477</v>
@@ -1981,28 +1972,28 @@
         <v>327</v>
       </c>
       <c r="G32" s="4">
-        <v>3406</v>
+        <v>641</v>
       </c>
       <c r="H32" s="3">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2017,7 +2008,7 @@
         <v>1585</v>
       </c>
       <c r="G33" s="4">
-        <v>486</v>
+        <v>605</v>
       </c>
       <c r="H33" s="3">
         <v>3</v>
@@ -2026,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
@@ -2062,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
@@ -2105,12 +2096,12 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
@@ -2125,28 +2116,28 @@
         <v>208</v>
       </c>
       <c r="G36" s="4">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H36" s="4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="4">
-        <v>16</v>
+      <c r="J36" s="3">
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -2161,34 +2152,34 @@
         <v>200</v>
       </c>
       <c r="G37" s="4">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="H37" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
         <v>3891</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="3">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -2197,28 +2188,28 @@
         <v>210</v>
       </c>
       <c r="G38" s="4">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
       <c r="J38" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -2233,28 +2224,28 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>2580</v>
+        <v>1116</v>
       </c>
       <c r="H39" s="4">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="I39" s="4">
         <v>340</v>
       </c>
       <c r="J39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
@@ -2285,12 +2276,12 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
@@ -2305,28 +2296,28 @@
         <v>4</v>
       </c>
       <c r="G41" s="4">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="H41" s="4">
-        <v>929</v>
+        <v>4</v>
       </c>
       <c r="I41" s="4">
         <v>6</v>
       </c>
-      <c r="J41" s="4">
-        <v>44</v>
+      <c r="J41" s="3">
+        <v>1</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
@@ -2341,10 +2332,10 @@
         <v>19</v>
       </c>
       <c r="G42" s="4">
-        <v>463</v>
+        <v>154</v>
       </c>
       <c r="H42" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -2357,12 +2348,12 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -2377,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I43" s="4">
         <v>897</v>
@@ -2394,12 +2385,12 @@
       <c r="L43" s="1"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -2414,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I44" s="4">
         <v>9</v>
       </c>
       <c r="J44" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2431,18 +2422,18 @@
       <c r="L44" s="1"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2451,16 +2442,16 @@
         <v>57</v>
       </c>
       <c r="G45" s="4">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="H45" s="4">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="I45" s="4">
         <v>955</v>
       </c>
       <c r="J45" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
@@ -2468,7 +2459,7 @@
       <c r="L45" s="1"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2506,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2544,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2555,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="3">
+        <v>1555</v>
+      </c>
+      <c r="E48" s="3">
         <v>10</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
       </c>
       <c r="F48" s="4">
         <v>1538</v>
@@ -2567,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>2</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>185</v>
@@ -2582,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2631,25 +2622,25 @@
         <v>2</v>
       </c>
       <c r="D50" s="3">
+        <v>171</v>
+      </c>
+      <c r="E50" s="3">
         <v>2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>652</v>
       </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J50" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -2658,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -2725,7 +2716,7 @@
         <v>39</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2734,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2789,7 +2780,7 @@
         <v>982</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2810,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2848,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -2865,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G56" s="3">
         <v>522</v>
@@ -2886,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -2906,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2924,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2944,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2962,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3011,39 +3002,39 @@
         <v>13</v>
       </c>
       <c r="D60" s="8">
-        <v>3.1440000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E60" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="F60" s="8">
-        <v>614.46600000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G60" s="8">
-        <v>1345.511</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H60" s="8">
-        <v>685.11599999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I60" s="8">
-        <v>1132.67</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J60" s="8">
-        <v>24.478000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K60" s="8">
-        <v>19.512</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L60" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>71</v>
@@ -3074,12 +3065,12 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>0</v>
@@ -3110,12 +3101,12 @@
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -3146,12 +3137,12 @@
       </c>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -3182,12 +3173,12 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>2</v>
@@ -3218,12 +3209,12 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>4</v>
@@ -3254,12 +3245,12 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>6</v>
@@ -3290,12 +3281,12 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -3326,12 +3317,12 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
@@ -3362,12 +3353,12 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -3398,12 +3389,12 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>10</v>
@@ -3434,12 +3425,12 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>11</v>
@@ -3470,12 +3461,12 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>12</v>
@@ -3506,12 +3497,12 @@
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
@@ -3542,7 +3533,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
@@ -3580,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>51</v>
       </c>
@@ -3618,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -3656,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
@@ -3694,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>51</v>
       </c>
@@ -3732,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -3770,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -3808,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>51</v>
       </c>
@@ -3846,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
@@ -3884,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>51</v>
       </c>
@@ -3960,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>51</v>
       </c>
@@ -3998,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -4036,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -4112,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -4150,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>51</v>
       </c>
@@ -4188,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>51</v>
       </c>
@@ -4226,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -4264,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
@@ -4302,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
@@ -4340,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
@@ -4378,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>51</v>
       </c>
@@ -4454,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -4492,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
@@ -4530,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>51</v>
       </c>
@@ -4568,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4606,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4644,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4682,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4720,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
@@ -4796,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
@@ -4834,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
@@ -4872,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -4910,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -4948,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -4970,7 +4961,7 @@
       <c r="G112" s="5">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="7">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="I112" s="5">
@@ -4986,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -5000,7 +4991,7 @@
         <v>0.1265</v>
       </c>
       <c r="E113" s="5">
-        <v>0.1265</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="F113" s="5">
         <v>0.12670000000000001</v>
@@ -5024,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
@@ -5038,7 +5029,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E114" s="5">
-        <v>6.6E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F114" s="5">
         <v>7.7000000000000002E-3</v>
@@ -5053,7 +5044,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J114" s="5">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="K114" s="5">
         <v>0</v>
@@ -5062,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>60</v>
       </c>
@@ -5138,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>60</v>
       </c>
@@ -5176,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
@@ -5234,7 +5225,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G119" s="5">
-        <v>2.2800000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="H119" s="5">
         <v>2.69E-2</v>
@@ -5252,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
@@ -5269,19 +5260,19 @@
         <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>2.0999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G120" s="5">
-        <v>2.2800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>2.69E-2</v>
+        <v>0</v>
       </c>
       <c r="I120" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J120" s="5">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="K120" s="5">
         <v>0</v>
@@ -5290,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>60</v>
       </c>
@@ -5328,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>60</v>
       </c>
@@ -5339,25 +5330,25 @@
         <v>59</v>
       </c>
       <c r="D122" s="5">
-        <v>7.3099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E122" s="5">
-        <v>0.11169999999999999</v>
+        <v>0</v>
       </c>
       <c r="F122" s="5">
-        <v>0.1084</v>
+        <v>0</v>
       </c>
       <c r="G122" s="5">
-        <v>5.8599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H122" s="5">
-        <v>0.1139</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J122" s="5">
-        <v>3.0800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K122" s="5">
         <v>0</v>
@@ -5366,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>61</v>
       </c>
@@ -5377,22 +5368,22 @@
         <v>33</v>
       </c>
       <c r="D123" s="5">
-        <v>6.6E-3</v>
+        <v>0</v>
       </c>
       <c r="E123" s="5">
-        <v>6.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="F123" s="5">
-        <v>6.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5">
-        <v>3.2000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H123" s="5">
-        <v>2.0999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="I123" s="5">
-        <v>2.8999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="J123" s="5">
         <v>0</v>
@@ -5404,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
@@ -5415,22 +5406,22 @@
         <v>32</v>
       </c>
       <c r="D124" s="5">
-        <v>6.1999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E124" s="5">
-        <v>6.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>5.3E-3</v>
+        <v>0</v>
       </c>
       <c r="G124" s="5">
-        <v>2.7000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>1.8200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I124" s="5">
-        <v>4.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="J124" s="5">
         <v>0</v>
@@ -5442,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>60</v>
       </c>
@@ -5480,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -5518,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -5556,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>60</v>
       </c>
@@ -5594,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>60</v>
       </c>
@@ -5632,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -5670,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -5708,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>60</v>
       </c>
@@ -5746,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>60</v>
       </c>
@@ -5784,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>60</v>
       </c>
@@ -5822,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>60</v>
       </c>
@@ -5860,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>61</v>
       </c>
@@ -5898,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>61</v>
       </c>
@@ -5936,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>60</v>
       </c>
@@ -5974,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>60</v>
       </c>
@@ -6012,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>60</v>
       </c>
@@ -6050,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>60</v>
       </c>
@@ -6088,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>60</v>
       </c>
@@ -6126,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>60</v>
       </c>
@@ -6164,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>60</v>
       </c>
@@ -6202,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>60</v>
       </c>
@@ -6240,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>60</v>
       </c>
@@ -6278,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>60</v>
       </c>
@@ -6316,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>60</v>
       </c>
@@ -6354,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>61</v>
       </c>
@@ -6392,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>61</v>
       </c>
@@ -6430,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>62</v>
       </c>
@@ -6468,7 +6459,7 @@
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>62</v>
       </c>
@@ -6506,7 +6497,7 @@
         <v>26529</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -6544,7 +6535,7 @@
         <v>55393</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>62</v>
       </c>
@@ -6582,7 +6573,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>62</v>
       </c>
@@ -6620,7 +6611,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>62</v>
       </c>
@@ -6658,7 +6649,7 @@
         <v>26129</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>62</v>
       </c>
@@ -6696,7 +6687,7 @@
         <v>25842</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -6734,7 +6725,7 @@
         <v>10607</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -6772,7 +6763,7 @@
         <v>15580</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -6810,7 +6801,7 @@
         <v>600644</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -7190,84 +7181,24 @@
         <v>16480</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D171" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E171" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="F171" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="G171" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="H171" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="I171" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="J171" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="K171" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="L171" s="10">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D172" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="E172" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="F172" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G172" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H172" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I172" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="J172" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="K172" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="L172" s="10">
-        <v>0.31</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L172" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}"/>
+  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PPTO_BAI"/>
+        <filter val="PPTO_BDI"/>
+        <filter val="PPTO_Demais Ativos"/>
+        <filter val="PPTO_Eficiência"/>
+        <filter val="PPTO_Impostos"/>
+        <filter val="PPTO_MOB"/>
+        <filter val="PPTO_MOL"/>
+        <filter val="PPTO_Oryp"/>
+        <filter val="PPTO_PDD"/>
+        <filter val="PPTO_Taxa Impositiva"/>
+        <filter val="PPTO_Total Gastos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EC6167-258A-4044-A673-08B5398A392B}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03040BA2-C104-461C-9D7B-7D93B3AC6955}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
@@ -302,46 +302,46 @@
     <t>Letras</t>
   </si>
   <si>
+    <t>PPTO_PDD</t>
+  </si>
+  <si>
+    <t>PPTO_MOL</t>
+  </si>
+  <si>
+    <t>PPTO_Oryp</t>
+  </si>
+  <si>
+    <t>PPTO_Demais Ativos</t>
+  </si>
+  <si>
+    <t>PPTO_Total Gastos</t>
+  </si>
+  <si>
+    <t>PPTO_BAI</t>
+  </si>
+  <si>
+    <t>PPTO_Impostos</t>
+  </si>
+  <si>
+    <t>PPTO_BDI</t>
+  </si>
+  <si>
+    <t>PPTO_MOB</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>provisao</t>
+  </si>
+  <si>
+    <t>rwa</t>
+  </si>
+  <si>
     <t>RWA</t>
   </si>
   <si>
     <t>RORWA</t>
-  </si>
-  <si>
-    <t>PPTO_PDD</t>
-  </si>
-  <si>
-    <t>PPTO_MOL</t>
-  </si>
-  <si>
-    <t>PPTO_Oryp</t>
-  </si>
-  <si>
-    <t>PPTO_Demais Ativos</t>
-  </si>
-  <si>
-    <t>PPTO_Total Gastos</t>
-  </si>
-  <si>
-    <t>PPTO_BAI</t>
-  </si>
-  <si>
-    <t>PPTO_Impostos</t>
-  </si>
-  <si>
-    <t>PPTO_BDI</t>
-  </si>
-  <si>
-    <t>PPTO_MOB</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>provisao</t>
-  </si>
-  <si>
-    <t>rwa</t>
   </si>
 </sst>
 </file>
@@ -427,10 +427,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,7 +750,7 @@
   <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1126,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>2719</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -1285,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <v>834</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3113</v>
       </c>
       <c r="H14" s="4">
         <v>3598</v>
@@ -1957,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>71</v>
@@ -1993,7 +1989,7 @@
         <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2029,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
@@ -2065,7 +2061,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
@@ -2101,7 +2097,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
@@ -2137,7 +2133,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -2173,7 +2169,7 @@
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
@@ -2209,7 +2205,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -2245,7 +2241,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
@@ -2281,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
@@ -2317,7 +2313,7 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
@@ -2353,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -2390,7 +2386,7 @@
         <v>74</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -2427,7 +2423,7 @@
         <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -3034,7 +3030,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>71</v>
@@ -3070,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>0</v>
@@ -3106,7 +3102,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -3142,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -3178,7 +3174,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>2</v>
@@ -3214,7 +3210,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>4</v>
@@ -3250,7 +3246,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>6</v>
@@ -3286,7 +3282,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -3322,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
@@ -3358,7 +3354,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -3394,7 +3390,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>10</v>
@@ -3430,7 +3426,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>11</v>
@@ -3466,7 +3462,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>12</v>
@@ -3502,7 +3498,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
@@ -6429,7 +6425,7 @@
         <v>62</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D151" s="4">
         <v>14768</v>
@@ -6763,7 +6759,7 @@
         <v>15580</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -6771,16 +6767,16 @@
         <v>62</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D160" s="4">
-        <v>0</v>
+        <v>41286.86</v>
       </c>
       <c r="E160" s="4">
-        <v>0</v>
+        <v>1143.07</v>
       </c>
       <c r="F160" s="4">
-        <v>0</v>
+        <v>59090.22</v>
       </c>
       <c r="G160" s="4">
         <v>80276</v>
@@ -6801,7 +6797,7 @@
         <v>600644</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -6809,16 +6805,16 @@
         <v>62</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D161" s="9">
-        <v>0</v>
+        <v>4.2023055277151132E-2</v>
       </c>
       <c r="E161" s="9">
-        <v>0</v>
+        <v>6.8832006883200694E-2</v>
       </c>
       <c r="F161" s="9">
-        <v>0</v>
+        <v>3.9733764991940548E-2</v>
       </c>
       <c r="G161" s="9">
         <v>6.2E-2</v>
@@ -6833,13 +6829,13 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="K161" s="9">
-        <v>2.2100000000000002E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="L161" s="9">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>62</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>62</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D162" s="4">
         <v>15351</v>
@@ -6877,7 +6873,7 @@
         <v>82847</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>62</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D163" s="4">
         <v>9771</v>
@@ -6915,7 +6911,7 @@
         <v>26349</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>62</v>
       </c>
@@ -6923,7 +6919,7 @@
         <v>62</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D164" s="4">
         <v>5580</v>
@@ -6953,7 +6949,7 @@
         <v>56498</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -6961,7 +6957,7 @@
         <v>62</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D165" s="4">
         <v>1298</v>
@@ -6991,7 +6987,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>62</v>
       </c>
@@ -6999,7 +6995,7 @@
         <v>62</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D166" s="3">
         <v>144</v>
@@ -7029,7 +7025,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>62</v>
       </c>
@@ -7037,7 +7033,7 @@
         <v>62</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D167" s="4">
         <v>5717</v>
@@ -7067,7 +7063,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>62</v>
       </c>
@@ -7075,7 +7071,7 @@
         <v>62</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D168" s="4">
         <v>1579</v>
@@ -7105,7 +7101,7 @@
         <v>27120</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>62</v>
       </c>
@@ -7113,7 +7109,7 @@
         <v>62</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D169" s="3">
         <v>59</v>
@@ -7143,7 +7139,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>62</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>62</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D170" s="4">
         <v>1638</v>
@@ -7185,17 +7181,8 @@
   <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
     <filterColumn colId="2">
       <filters>
-        <filter val="PPTO_BAI"/>
-        <filter val="PPTO_BDI"/>
-        <filter val="PPTO_Demais Ativos"/>
-        <filter val="PPTO_Eficiência"/>
-        <filter val="PPTO_Impostos"/>
-        <filter val="PPTO_MOB"/>
-        <filter val="PPTO_MOL"/>
-        <filter val="PPTO_Oryp"/>
-        <filter val="PPTO_PDD"/>
-        <filter val="PPTO_Taxa Impositiva"/>
-        <filter val="PPTO_Total Gastos"/>
+        <filter val="RORWA"/>
+        <filter val="RWA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03040BA2-C104-461C-9D7B-7D93B3AC6955}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD130C7-8E64-4F3E-97AD-BA9FAABD6671}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
@@ -746,12 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -808,7 +805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -846,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -884,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -922,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1948,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1982,9 +1979,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2018,9 +2017,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2054,9 +2055,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2090,9 +2093,11 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2126,9 +2131,11 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2162,9 +2169,11 @@
       <c r="K37" s="4">
         <v>3891</v>
       </c>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2198,9 +2207,11 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -2234,9 +2245,11 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -2270,9 +2283,11 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2306,9 +2321,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -2342,9 +2359,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2378,10 +2397,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -2415,10 +2436,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -2452,10 +2475,12 @@
       <c r="K45" s="4">
         <v>0</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2493,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2531,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2569,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2645,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2759,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2797,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2835,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -2873,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -2911,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2949,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -2987,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3025,7 +3050,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3059,9 +3084,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -3095,9 +3122,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3131,9 +3160,11 @@
       <c r="K63" s="3">
         <v>796</v>
       </c>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3167,9 +3198,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -3203,9 +3236,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3239,9 +3274,11 @@
       <c r="K66" s="4">
         <v>49758</v>
       </c>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -3275,9 +3312,11 @@
       <c r="K67" s="3">
         <v>0</v>
       </c>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3311,9 +3350,11 @@
       <c r="K68" s="3">
         <v>1</v>
       </c>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,9 +3388,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -3383,9 +3426,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -3419,9 +3464,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3455,9 +3502,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3491,9 +3540,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -3527,9 +3578,11 @@
       <c r="K74" s="4">
         <v>1233</v>
       </c>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
@@ -3563,11 +3616,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>51</v>
       </c>
@@ -3601,11 +3654,11 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -3639,11 +3692,11 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
@@ -3677,11 +3730,11 @@
       <c r="K78" s="3">
         <v>0</v>
       </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>51</v>
       </c>
@@ -3715,11 +3768,11 @@
       <c r="K79" s="3">
         <v>0</v>
       </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -3753,11 +3806,11 @@
       <c r="K80" s="3">
         <v>0</v>
       </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -3791,11 +3844,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>51</v>
       </c>
@@ -3829,11 +3882,11 @@
       <c r="K82" s="3">
         <v>0</v>
       </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
@@ -3867,11 +3920,11 @@
       <c r="K83" s="3">
         <v>45</v>
       </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>51</v>
       </c>
@@ -3905,11 +3958,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>51</v>
       </c>
@@ -3943,11 +3996,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>51</v>
       </c>
@@ -3981,11 +4034,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -4019,11 +4072,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -4057,11 +4110,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -4095,11 +4148,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -4133,11 +4186,11 @@
       <c r="K90" s="3">
         <v>0</v>
       </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>51</v>
       </c>
@@ -4171,11 +4224,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>51</v>
       </c>
@@ -4209,11 +4262,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -4247,11 +4300,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
@@ -4285,11 +4338,11 @@
       <c r="K94" s="3">
         <v>41</v>
       </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
@@ -4323,11 +4376,11 @@
       <c r="K95" s="3">
         <v>0</v>
       </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
@@ -4361,11 +4414,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L96" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -4399,11 +4452,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>51</v>
       </c>
@@ -4437,11 +4490,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -4475,11 +4528,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
@@ -4513,11 +4566,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>51</v>
       </c>
@@ -4551,11 +4604,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L101" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4589,11 +4642,11 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L102" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4627,11 +4680,11 @@
       <c r="K103" s="3">
         <v>47</v>
       </c>
-      <c r="L103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4665,11 +4718,11 @@
       <c r="K104" s="3">
         <v>0</v>
       </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4703,11 +4756,11 @@
       <c r="K105" s="3">
         <v>0</v>
       </c>
-      <c r="L105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4741,11 +4794,11 @@
       <c r="K106" s="3">
         <v>0</v>
       </c>
-      <c r="L106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L106" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
@@ -4779,11 +4832,11 @@
       <c r="K107" s="3">
         <v>0</v>
       </c>
-      <c r="L107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
@@ -4817,11 +4870,11 @@
       <c r="K108" s="3">
         <v>0</v>
       </c>
-      <c r="L108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L108" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
@@ -4855,11 +4908,11 @@
       <c r="K109" s="3">
         <v>0</v>
       </c>
-      <c r="L109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -4893,11 +4946,11 @@
       <c r="K110" s="3">
         <v>0</v>
       </c>
-      <c r="L110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L110" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -4931,11 +4984,11 @@
       <c r="K111" s="3">
         <v>0</v>
       </c>
-      <c r="L111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -4969,11 +5022,11 @@
       <c r="K112" s="5">
         <v>0</v>
       </c>
-      <c r="L112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -5007,11 +5060,11 @@
       <c r="K113" s="5">
         <v>0</v>
       </c>
-      <c r="L113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L113" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
@@ -5045,11 +5098,11 @@
       <c r="K114" s="5">
         <v>0</v>
       </c>
-      <c r="L114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
@@ -5083,11 +5136,11 @@
       <c r="K115" s="5">
         <v>0</v>
       </c>
-      <c r="L115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L115" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>60</v>
       </c>
@@ -5121,11 +5174,11 @@
       <c r="K116" s="5">
         <v>0</v>
       </c>
-      <c r="L116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L116" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>60</v>
       </c>
@@ -5159,11 +5212,11 @@
       <c r="K117" s="5">
         <v>0</v>
       </c>
-      <c r="L117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L117" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
@@ -5197,11 +5250,11 @@
       <c r="K118" s="5">
         <v>0</v>
       </c>
-      <c r="L118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L118" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
@@ -5235,11 +5288,11 @@
       <c r="K119" s="5">
         <v>0</v>
       </c>
-      <c r="L119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L119" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
@@ -5273,11 +5326,11 @@
       <c r="K120" s="5">
         <v>0</v>
       </c>
-      <c r="L120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>60</v>
       </c>
@@ -5311,11 +5364,11 @@
       <c r="K121" s="5">
         <v>0</v>
       </c>
-      <c r="L121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>60</v>
       </c>
@@ -5349,11 +5402,11 @@
       <c r="K122" s="5">
         <v>0</v>
       </c>
-      <c r="L122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L122" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>61</v>
       </c>
@@ -5387,11 +5440,11 @@
       <c r="K123" s="5">
         <v>0</v>
       </c>
-      <c r="L123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L123" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
@@ -5425,11 +5478,11 @@
       <c r="K124" s="5">
         <v>0</v>
       </c>
-      <c r="L124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>60</v>
       </c>
@@ -5463,11 +5516,11 @@
       <c r="K125" s="3">
         <v>0</v>
       </c>
-      <c r="L125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -5501,11 +5554,11 @@
       <c r="K126" s="3">
         <v>0</v>
       </c>
-      <c r="L126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -5539,11 +5592,11 @@
       <c r="K127" s="3">
         <v>0</v>
       </c>
-      <c r="L127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L127" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>60</v>
       </c>
@@ -5577,11 +5630,11 @@
       <c r="K128" s="3">
         <v>0</v>
       </c>
-      <c r="L128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L128" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>60</v>
       </c>
@@ -5615,11 +5668,11 @@
       <c r="K129" s="3">
         <v>0</v>
       </c>
-      <c r="L129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -5653,11 +5706,11 @@
       <c r="K130" s="3">
         <v>0</v>
       </c>
-      <c r="L130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -5691,11 +5744,11 @@
       <c r="K131" s="3">
         <v>0</v>
       </c>
-      <c r="L131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>60</v>
       </c>
@@ -5729,11 +5782,11 @@
       <c r="K132" s="3">
         <v>0</v>
       </c>
-      <c r="L132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L132" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>60</v>
       </c>
@@ -5767,11 +5820,11 @@
       <c r="K133" s="3">
         <v>0</v>
       </c>
-      <c r="L133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L133" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>60</v>
       </c>
@@ -5805,11 +5858,11 @@
       <c r="K134" s="3">
         <v>0</v>
       </c>
-      <c r="L134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L134" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>60</v>
       </c>
@@ -5843,11 +5896,11 @@
       <c r="K135" s="3">
         <v>0</v>
       </c>
-      <c r="L135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L135" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>61</v>
       </c>
@@ -5881,11 +5934,11 @@
       <c r="K136" s="3">
         <v>0</v>
       </c>
-      <c r="L136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L136" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>61</v>
       </c>
@@ -5919,11 +5972,11 @@
       <c r="K137" s="3">
         <v>0</v>
       </c>
-      <c r="L137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L137" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>60</v>
       </c>
@@ -5957,11 +6010,11 @@
       <c r="K138" s="3">
         <v>0</v>
       </c>
-      <c r="L138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>60</v>
       </c>
@@ -5995,11 +6048,11 @@
       <c r="K139" s="3">
         <v>0</v>
       </c>
-      <c r="L139" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>60</v>
       </c>
@@ -6033,11 +6086,11 @@
       <c r="K140" s="3">
         <v>0</v>
       </c>
-      <c r="L140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L140" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>60</v>
       </c>
@@ -6071,11 +6124,11 @@
       <c r="K141" s="3">
         <v>0</v>
       </c>
-      <c r="L141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L141" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>60</v>
       </c>
@@ -6113,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>60</v>
       </c>
@@ -6151,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>60</v>
       </c>
@@ -6189,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>60</v>
       </c>
@@ -6227,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>60</v>
       </c>
@@ -6265,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>60</v>
       </c>
@@ -6303,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>60</v>
       </c>
@@ -6341,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>61</v>
       </c>
@@ -6379,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>61</v>
       </c>
@@ -6417,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>62</v>
       </c>
@@ -6455,7 +6508,7 @@
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>62</v>
       </c>
@@ -6493,7 +6546,7 @@
         <v>26529</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -6531,7 +6584,7 @@
         <v>55393</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>62</v>
       </c>
@@ -6569,7 +6622,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>62</v>
       </c>
@@ -6607,7 +6660,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>62</v>
       </c>
@@ -6645,7 +6698,7 @@
         <v>26129</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>62</v>
       </c>
@@ -6683,7 +6736,7 @@
         <v>25842</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -6721,7 +6774,7 @@
         <v>10607</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -6835,7 +6888,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>62</v>
       </c>
@@ -6873,7 +6926,7 @@
         <v>82847</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>62</v>
       </c>
@@ -6911,7 +6964,7 @@
         <v>26349</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>62</v>
       </c>
@@ -6949,7 +7002,7 @@
         <v>56498</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -6987,7 +7040,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>62</v>
       </c>
@@ -7025,7 +7078,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>62</v>
       </c>
@@ -7063,7 +7116,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>62</v>
       </c>
@@ -7101,7 +7154,7 @@
         <v>27120</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>62</v>
       </c>
@@ -7139,7 +7192,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>62</v>
       </c>
@@ -7178,14 +7231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RORWA"/>
-        <filter val="RWA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD130C7-8E64-4F3E-97AD-BA9FAABD6671}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65BBFB35-0D62-4520-A023-7386EC2F6CFA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
+    <workbookView xWindow="31575" yWindow="6165" windowWidth="25920" windowHeight="14715" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
   <sheets>
     <sheet name="indicadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="102">
   <si>
     <t>Cartões</t>
   </si>
@@ -342,13 +342,19 @@
   </si>
   <si>
     <t>RORWA</t>
+  </si>
+  <si>
+    <t>cascada_ppto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,13 +370,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -382,10 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,9 +432,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,13 +792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
-  <dimension ref="A1:N170"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -805,7 +854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -843,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -881,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -919,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -957,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -995,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1033,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1071,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -1109,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1147,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1185,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1223,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1261,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1299,45 +1348,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
         <v>3270</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="12">
         <v>4321</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <v>3297</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="12">
         <v>6397</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="11">
         <v>80</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="12">
         <v>3824</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -1375,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1413,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1451,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1489,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -1527,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1565,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1603,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1641,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1679,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -1755,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1793,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -1831,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1869,45 +1918,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="13">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="14">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="G30" s="5">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="I30" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="13">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -1945,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2059,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2097,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2173,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2211,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -2249,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -2287,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2325,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -2363,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2402,7 +2451,7 @@
       </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -2441,46 +2490,46 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
         <v>57</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="12">
         <v>165</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="12">
         <v>132</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="12">
         <v>955</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="11">
         <v>1</v>
       </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
         <v>0</v>
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2518,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2556,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2594,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -2632,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2670,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2708,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -2746,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2784,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2822,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -2860,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -2898,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -2936,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2974,45 +3023,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="3">
-        <v>152</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>261</v>
+      </c>
+      <c r="G59" s="11">
+        <v>385</v>
+      </c>
+      <c r="H59" s="11">
+        <v>78</v>
+      </c>
+      <c r="I59" s="11">
+        <v>262</v>
+      </c>
+      <c r="J59" s="11">
         <v>2</v>
       </c>
-      <c r="F59" s="3">
-        <v>261</v>
-      </c>
-      <c r="G59" s="3">
-        <v>385</v>
-      </c>
-      <c r="H59" s="3">
-        <v>78</v>
-      </c>
-      <c r="I59" s="3">
-        <v>262</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="11">
         <v>315</v>
       </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3023,34 +3072,34 @@
         <v>13</v>
       </c>
       <c r="D60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L60" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3085,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -3123,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3161,10 +3210,10 @@
         <v>796</v>
       </c>
       <c r="L63" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3199,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -3237,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3275,10 +3324,10 @@
         <v>49758</v>
       </c>
       <c r="L66" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -3313,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -3351,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="L68" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -3389,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -3427,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -3465,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3503,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3541,48 +3590,48 @@
         <v>0</v>
       </c>
       <c r="L73" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
+      <c r="D74" s="11">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
         <v>7494</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="12">
         <v>3778</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="12">
         <v>2874</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="12">
         <v>3794</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="11">
         <v>29</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="12">
         <v>1233</v>
       </c>
-      <c r="L74" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>51</v>
       </c>
@@ -3655,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -3693,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
@@ -3731,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>51</v>
       </c>
@@ -3769,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -3807,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -3845,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>51</v>
       </c>
@@ -3883,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
@@ -3921,10 +3970,10 @@
         <v>45</v>
       </c>
       <c r="L83" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>51</v>
       </c>
@@ -3959,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="L84" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>51</v>
       </c>
@@ -3997,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>51</v>
       </c>
@@ -4035,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="L86" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>51</v>
       </c>
@@ -4073,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
@@ -4111,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -4149,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
@@ -4187,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>51</v>
       </c>
@@ -4225,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>51</v>
       </c>
@@ -4263,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -4301,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="L93" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
@@ -4339,10 +4388,10 @@
         <v>41</v>
       </c>
       <c r="L94" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
@@ -4377,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="L95" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
@@ -4415,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -4453,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>51</v>
       </c>
@@ -4491,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -4529,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
@@ -4567,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>51</v>
       </c>
@@ -4605,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="L101" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4643,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -4681,10 +4730,10 @@
         <v>47</v>
       </c>
       <c r="L103" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -4719,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="L104" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -4757,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4795,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
@@ -4833,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="L107" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
@@ -4871,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="L108" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
@@ -4909,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="L109" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -4947,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="L110" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -4985,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="L111" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -5023,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="L112" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -5061,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="L114" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
@@ -5137,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="L115" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>60</v>
       </c>
@@ -5175,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="L116" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>60</v>
       </c>
@@ -5213,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
@@ -5251,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="L118" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
@@ -5289,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="L119" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
@@ -5327,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="L120" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>60</v>
       </c>
@@ -5365,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="L121" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>60</v>
       </c>
@@ -5403,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="L122" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>61</v>
       </c>
@@ -5441,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="L123" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
@@ -5479,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="L124" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>60</v>
       </c>
@@ -5517,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="L125" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -5555,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="L126" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="L127" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>60</v>
       </c>
@@ -5631,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="L128" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>60</v>
       </c>
@@ -5669,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="L129" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -5707,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="L130" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -5745,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="L131" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>60</v>
       </c>
@@ -5783,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="L132" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>60</v>
       </c>
@@ -5821,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="L133" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>60</v>
       </c>
@@ -5859,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="L134" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>60</v>
       </c>
@@ -5897,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="L135" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>61</v>
       </c>
@@ -5935,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="L136" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>61</v>
       </c>
@@ -5973,10 +6022,10 @@
         <v>0</v>
       </c>
       <c r="L137" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>60</v>
       </c>
@@ -6011,10 +6060,10 @@
         <v>0</v>
       </c>
       <c r="L138" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>60</v>
       </c>
@@ -6049,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="L139" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>60</v>
       </c>
@@ -6087,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="L140" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>60</v>
       </c>
@@ -6125,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="L141" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>60</v>
       </c>
@@ -6162,11 +6211,11 @@
       <c r="K142" s="3">
         <v>0</v>
       </c>
-      <c r="L142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L142" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>60</v>
       </c>
@@ -6200,11 +6249,11 @@
       <c r="K143" s="3">
         <v>0</v>
       </c>
-      <c r="L143" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L143" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>60</v>
       </c>
@@ -6238,11 +6287,11 @@
       <c r="K144" s="3">
         <v>0</v>
       </c>
-      <c r="L144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L144" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>60</v>
       </c>
@@ -6276,11 +6325,11 @@
       <c r="K145" s="3">
         <v>0</v>
       </c>
-      <c r="L145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L145" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>60</v>
       </c>
@@ -6314,11 +6363,11 @@
       <c r="K146" s="3">
         <v>0</v>
       </c>
-      <c r="L146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L146" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>60</v>
       </c>
@@ -6352,11 +6401,11 @@
       <c r="K147" s="3">
         <v>0</v>
       </c>
-      <c r="L147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L147" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>60</v>
       </c>
@@ -6390,11 +6439,11 @@
       <c r="K148" s="3">
         <v>0</v>
       </c>
-      <c r="L148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L148" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>61</v>
       </c>
@@ -6432,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>61</v>
       </c>
@@ -6470,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>62</v>
       </c>
@@ -6508,7 +6557,7 @@
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>62</v>
       </c>
@@ -6519,34 +6568,34 @@
         <v>63</v>
       </c>
       <c r="D152" s="4">
-        <v>9698</v>
+        <v>-9698</v>
       </c>
       <c r="E152" s="3">
-        <v>412</v>
+        <v>-412</v>
       </c>
       <c r="F152" s="4">
-        <v>6047</v>
+        <v>-6047</v>
       </c>
       <c r="G152" s="4">
-        <v>5900</v>
+        <v>-5900</v>
       </c>
       <c r="H152" s="3">
-        <v>579</v>
+        <v>-579</v>
       </c>
       <c r="I152" s="3">
-        <v>109</v>
+        <v>-109</v>
       </c>
       <c r="J152" s="3">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="K152" s="4">
-        <v>3751</v>
+        <v>-3751</v>
       </c>
       <c r="L152" s="3">
-        <v>26529</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-26529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -6584,7 +6633,7 @@
         <v>55393</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>62</v>
       </c>
@@ -6595,34 +6644,34 @@
         <v>70</v>
       </c>
       <c r="D154" s="3">
-        <v>972</v>
+        <v>-972</v>
       </c>
       <c r="E154" s="3">
-        <v>70</v>
+        <v>-70</v>
       </c>
       <c r="F154" s="3">
-        <v>834</v>
+        <v>-834</v>
       </c>
       <c r="G154" s="4">
-        <v>1073</v>
+        <v>-1073</v>
       </c>
       <c r="H154" s="3">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="I154" s="3">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="J154" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K154" s="3">
-        <v>307</v>
+        <v>-307</v>
       </c>
       <c r="L154" s="3">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>62</v>
       </c>
@@ -6633,16 +6682,16 @@
         <v>65</v>
       </c>
       <c r="D155" s="3">
-        <v>185</v>
+        <v>-185</v>
       </c>
       <c r="E155" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F155" s="3">
-        <v>74</v>
+        <v>-74</v>
       </c>
       <c r="G155" s="3">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
@@ -6657,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="L155" s="3">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>62</v>
       </c>
@@ -6671,34 +6720,34 @@
         <v>66</v>
       </c>
       <c r="D156" s="4">
-        <v>5761</v>
+        <v>-5761</v>
       </c>
       <c r="E156" s="3">
-        <v>453</v>
+        <v>-453</v>
       </c>
       <c r="F156" s="4">
-        <v>7507</v>
+        <v>-7507</v>
       </c>
       <c r="G156" s="4">
-        <v>6565</v>
+        <v>-6565</v>
       </c>
       <c r="H156" s="3">
-        <v>742</v>
+        <v>-742</v>
       </c>
       <c r="I156" s="4">
-        <v>2420</v>
+        <v>-2420</v>
       </c>
       <c r="J156" s="3">
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K156" s="4">
-        <v>1148</v>
+        <v>-1148</v>
       </c>
       <c r="L156" s="3">
-        <v>26129</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-26129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>62</v>
       </c>
@@ -6709,7 +6758,7 @@
         <v>67</v>
       </c>
       <c r="D157" s="4">
-        <v>1848</v>
+        <v>-1848</v>
       </c>
       <c r="E157" s="3">
         <v>334</v>
@@ -6736,7 +6785,7 @@
         <v>25842</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -6750,31 +6799,31 @@
         <v>113</v>
       </c>
       <c r="E158" s="3">
-        <v>157</v>
+        <v>-157</v>
       </c>
       <c r="F158" s="4">
-        <v>2176</v>
+        <v>-2176</v>
       </c>
       <c r="G158" s="4">
-        <v>3184</v>
+        <v>-3184</v>
       </c>
       <c r="H158" s="4">
-        <v>1720</v>
+        <v>-1720</v>
       </c>
       <c r="I158" s="4">
         <v>2163</v>
       </c>
       <c r="J158" s="3">
-        <v>216</v>
+        <v>-216</v>
       </c>
       <c r="K158" s="3">
-        <v>803</v>
+        <v>-803</v>
       </c>
       <c r="L158" s="3">
-        <v>10607</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-10607</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -6785,7 +6834,7 @@
         <v>69</v>
       </c>
       <c r="D159" s="4">
-        <v>1735</v>
+        <v>-1735</v>
       </c>
       <c r="E159" s="3">
         <v>176</v>
@@ -6812,7 +6861,7 @@
         <v>15580</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -6850,7 +6899,7 @@
         <v>600644</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -6890,10 +6939,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>95</v>
@@ -6928,48 +6977,48 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D163" s="4">
-        <v>9771</v>
+        <v>-9771</v>
       </c>
       <c r="E163" s="3">
-        <v>390</v>
+        <v>-390</v>
       </c>
       <c r="F163" s="4">
-        <v>5841</v>
+        <v>-5841</v>
       </c>
       <c r="G163" s="4">
-        <v>5911</v>
+        <v>-5911</v>
       </c>
       <c r="H163" s="3">
-        <v>493</v>
+        <v>-493</v>
       </c>
       <c r="I163" s="3">
-        <v>115</v>
+        <v>-115</v>
       </c>
       <c r="J163" s="3">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="K163" s="4">
-        <v>3811</v>
+        <v>-3811</v>
       </c>
       <c r="L163" s="4">
-        <v>26349</v>
+        <v>-26349</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>88</v>
@@ -7004,63 +7053,63 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D165" s="4">
-        <v>1298</v>
+        <v>-1298</v>
       </c>
       <c r="E165" s="3">
-        <v>95</v>
+        <v>-95</v>
       </c>
       <c r="F165" s="3">
-        <v>479</v>
+        <v>-479</v>
       </c>
       <c r="G165" s="4">
-        <v>1093</v>
+        <v>-1093</v>
       </c>
       <c r="H165" s="3">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="I165" s="3">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="J165" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K165" s="3">
-        <v>297</v>
+        <v>-297</v>
       </c>
       <c r="L165" s="4">
-        <v>3130</v>
+        <v>-3130</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D166" s="3">
-        <v>144</v>
+        <v>-144</v>
       </c>
       <c r="E166" s="3">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F166" s="3">
-        <v>163</v>
+        <v>-163</v>
       </c>
       <c r="G166" s="3">
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
@@ -7075,53 +7124,53 @@
         <v>0</v>
       </c>
       <c r="L166" s="3">
-        <v>548</v>
+        <v>-548</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D167" s="4">
-        <v>5717</v>
+        <v>-5717</v>
       </c>
       <c r="E167" s="3">
-        <v>440</v>
+        <v>-440</v>
       </c>
       <c r="F167" s="4">
-        <v>7347</v>
+        <v>-7347</v>
       </c>
       <c r="G167" s="4">
-        <v>6448</v>
+        <v>-6448</v>
       </c>
       <c r="H167" s="3">
-        <v>803</v>
+        <v>-803</v>
       </c>
       <c r="I167" s="4">
-        <v>2308</v>
+        <v>-2308</v>
       </c>
       <c r="J167" s="3">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K167" s="4">
-        <v>1148</v>
+        <v>-1148</v>
       </c>
       <c r="L167" s="4">
-        <v>25700</v>
+        <v>-25700</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>92</v>
@@ -7156,48 +7205,48 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D169" s="3">
-        <v>59</v>
+        <v>-59</v>
       </c>
       <c r="E169" s="3">
-        <v>277</v>
+        <v>-277</v>
       </c>
       <c r="F169" s="4">
-        <v>2090</v>
+        <v>-2090</v>
       </c>
       <c r="G169" s="4">
-        <v>3213</v>
+        <v>-3213</v>
       </c>
       <c r="H169" s="4">
-        <v>1687</v>
+        <v>-1687</v>
       </c>
       <c r="I169" s="4">
-        <v>2232</v>
+        <v>-2232</v>
       </c>
       <c r="J169" s="3">
-        <v>215</v>
+        <v>-215</v>
       </c>
       <c r="K169" s="3">
-        <v>851</v>
+        <v>-851</v>
       </c>
       <c r="L169" s="4">
-        <v>10640</v>
+        <v>-10640</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>94</v>
@@ -7230,8 +7279,17 @@
         <v>16480</v>
       </c>
     </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}"/>
+  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="cascada_ppto"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65BBFB35-0D62-4520-A023-7386EC2F6CFA}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC68F01-C912-4A1F-BD32-644C3D14559A}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="6165" windowWidth="25920" windowHeight="14715" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
+    <workbookView xWindow="540" yWindow="-15750" windowWidth="23010" windowHeight="12210" activeTab="1" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="indicadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="indicadores" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicadores!$A$1:$L$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicadores!$A$1:$L$170</definedName>
+    <definedName name="_xlcn.WorksheetConnection_indicadoresAL1" hidden="1">indicadores!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="56" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Intervalo" name="Intervalo" connection="WorksheetConnection_indicadores!$A:$L"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,8 +50,31 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D89C1E11-93FF-4F0C-A141-2C6D7DF99347}" keepAlive="1" name="ThisWorkbookDataModel" description="Modelo de Dados" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{9343DE80-4D50-4192-B66E-BE643101F779}" name="WorksheetConnection_indicadores!$A:$L" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Intervalo" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_indicadoresAL1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="113">
   <si>
     <t>Cartões</t>
   </si>
@@ -345,6 +380,39 @@
   </si>
   <si>
     <t>cascada_ppto</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Especial</t>
+  </si>
+  <si>
+    <t>Soma de Prospera</t>
+  </si>
+  <si>
+    <t>Soma de Select</t>
+  </si>
+  <si>
+    <t>Soma de PJ</t>
+  </si>
+  <si>
+    <t>Soma de Corporate</t>
+  </si>
+  <si>
+    <t>Soma de SCIB</t>
+  </si>
+  <si>
+    <t>Soma de Private</t>
+  </si>
+  <si>
+    <t>Soma de Consumer</t>
+  </si>
+  <si>
+    <t>Soma de Total</t>
   </si>
 </sst>
 </file>
@@ -405,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,6 +521,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +546,319 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Caique Filipini" refreshedDate="45741.419320138892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D4EC5A01-7E06-45DD-A718-8D8B823A38D6}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="10">
+    <cacheField name="[Measures].[Soma de Especial]" caption="Soma de Especial" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[Measures].[Soma de Prospera]" caption="Soma de Prospera" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[Measures].[Soma de Select]" caption="Soma de Select" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Soma de PJ]" caption="Soma de PJ" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Soma de Corporate]" caption="Soma de Corporate" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Soma de SCIB]" caption="Soma de SCIB" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[Soma de Private]" caption="Soma de Private" numFmtId="0" hierarchy="21" level="32767"/>
+    <cacheField name="[Measures].[Soma de Consumer]" caption="Soma de Consumer" numFmtId="0" hierarchy="22" level="32767"/>
+    <cacheField name="[Measures].[Soma de Total]" caption="Soma de Total" numFmtId="0" hierarchy="23" level="32767"/>
+    <cacheField name="[Intervalo].[Indicador].[Indicador]" caption="Indicador" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="8">
+        <s v="carteira"/>
+        <s v="cascada"/>
+        <s v="cascada_ppto"/>
+        <s v="comissoes"/>
+        <s v="margem"/>
+        <s v="provisao"/>
+        <s v="rwa"/>
+        <s v="spread"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="24">
+    <cacheHierarchy uniqueName="[Intervalo].[Topico]" caption="Topico" attribute="1" defaultMemberUniqueName="[Intervalo].[Topico].[All]" allUniqueName="[Intervalo].[Topico].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Indicador]" caption="Indicador" attribute="1" defaultMemberUniqueName="[Intervalo].[Indicador].[All]" allUniqueName="[Intervalo].[Indicador].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Intervalo].[Abertura]" caption="Abertura" attribute="1" defaultMemberUniqueName="[Intervalo].[Abertura].[All]" allUniqueName="[Intervalo].[Abertura].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Especial]" caption="Especial" attribute="1" defaultMemberUniqueName="[Intervalo].[Especial].[All]" allUniqueName="[Intervalo].[Especial].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Prospera]" caption="Prospera" attribute="1" defaultMemberUniqueName="[Intervalo].[Prospera].[All]" allUniqueName="[Intervalo].[Prospera].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Select]" caption="Select" attribute="1" defaultMemberUniqueName="[Intervalo].[Select].[All]" allUniqueName="[Intervalo].[Select].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[PJ]" caption="PJ" attribute="1" defaultMemberUniqueName="[Intervalo].[PJ].[All]" allUniqueName="[Intervalo].[PJ].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Corporate]" caption="Corporate" attribute="1" defaultMemberUniqueName="[Intervalo].[Corporate].[All]" allUniqueName="[Intervalo].[Corporate].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[SCIB]" caption="SCIB" attribute="1" defaultMemberUniqueName="[Intervalo].[SCIB].[All]" allUniqueName="[Intervalo].[SCIB].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Private]" caption="Private" attribute="1" defaultMemberUniqueName="[Intervalo].[Private].[All]" allUniqueName="[Intervalo].[Private].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Consumer]" caption="Consumer" attribute="1" defaultMemberUniqueName="[Intervalo].[Consumer].[All]" allUniqueName="[Intervalo].[Consumer].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[Intervalo].[Total].[All]" allUniqueName="[Intervalo].[Total].[All]" dimensionUniqueName="[Intervalo]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Intervalo]" caption="__XL_Count Intervalo" measure="1" displayFolder="" measureGroup="Intervalo" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Abertura]" caption="Contagem de Abertura" measure="1" displayFolder="" measureGroup="Intervalo" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Especial]" caption="Soma de Especial" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Prospera]" caption="Soma de Prospera" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Select]" caption="Soma de Select" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de PJ]" caption="Soma de PJ" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Corporate]" caption="Soma de Corporate" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de SCIB]" caption="Soma de SCIB" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Private]" caption="Soma de Private" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="9"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Consumer]" caption="Soma de Consumer" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Total]" caption="Soma de Total" measure="1" displayFolder="" measureGroup="Intervalo" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="11"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension name="Intervalo" uniqueName="[Intervalo]" caption="Intervalo"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Intervalo" caption="Intervalo"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="0"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769ACD05-3684-49C7-901B-D3902D254985}" name="Tabela dinâmica1" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Soma de Especial" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Prospera" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Select" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de PJ" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Corporate" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de SCIB" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Private" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Consumer" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="24">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_indicadores!$A:$L">
+        <x15:activeTabTopLevelEntity name="[Intervalo]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,12 +1177,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC174B10-193C-45F8-854C-3EB55871794C}">
+  <dimension ref="A3:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" activeCellId="1" sqref="B8 B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19">
+        <v>125866</v>
+      </c>
+      <c r="C4" s="19">
+        <v>6464</v>
+      </c>
+      <c r="D4" s="19">
+        <v>462800</v>
+      </c>
+      <c r="E4" s="19">
+        <v>244965</v>
+      </c>
+      <c r="F4" s="19">
+        <v>206335</v>
+      </c>
+      <c r="G4" s="19">
+        <v>486100</v>
+      </c>
+      <c r="H4" s="19">
+        <v>123415</v>
+      </c>
+      <c r="I4" s="19">
+        <v>69334</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="19">
+        <v>41038.902023055278</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2686.1388320068827</v>
+      </c>
+      <c r="D5" s="19">
+        <v>81167.259733764993</v>
+      </c>
+      <c r="E5" s="19">
+        <v>112993.06200000001</v>
+      </c>
+      <c r="F5" s="19">
+        <v>117078.04399999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>151823.04519999999</v>
+      </c>
+      <c r="H5" s="19">
+        <v>9396.0671000000002</v>
+      </c>
+      <c r="I5" s="19">
+        <v>78132.022100000002</v>
+      </c>
+      <c r="J5" s="19">
+        <v>712695.03079999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="19">
+        <v>7159</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2921</v>
+      </c>
+      <c r="D6" s="19">
+        <v>22530</v>
+      </c>
+      <c r="E6" s="19">
+        <v>34348</v>
+      </c>
+      <c r="F6" s="19">
+        <v>17396</v>
+      </c>
+      <c r="G6" s="19">
+        <v>24946</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I6" s="19">
+        <v>7791</v>
+      </c>
+      <c r="J6" s="19">
+        <v>116578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5311</v>
+      </c>
+      <c r="C7" s="19">
+        <v>161</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10270</v>
+      </c>
+      <c r="E7" s="19">
+        <v>4737</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2556</v>
+      </c>
+      <c r="G7" s="19">
+        <v>884</v>
+      </c>
+      <c r="H7" s="19">
+        <v>790</v>
+      </c>
+      <c r="I7" s="19">
+        <v>133</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="19">
+        <v>12426</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1218</v>
+      </c>
+      <c r="D8" s="19">
+        <v>14438</v>
+      </c>
+      <c r="E8" s="19">
+        <v>14269</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3702</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3071</v>
+      </c>
+      <c r="H8" s="19">
+        <v>667</v>
+      </c>
+      <c r="I8" s="19">
+        <v>5545</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="19">
+        <v>9138</v>
+      </c>
+      <c r="C9" s="19">
+        <v>562</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5433</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3026</v>
+      </c>
+      <c r="F9" s="19">
+        <v>204</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2210</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3891</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="19">
+        <v>41083</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2548</v>
+      </c>
+      <c r="D10" s="19">
+        <v>58349</v>
+      </c>
+      <c r="E10" s="19">
+        <v>46991</v>
+      </c>
+      <c r="F10" s="19">
+        <v>61331</v>
+      </c>
+      <c r="G10" s="19">
+        <v>37033</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2696</v>
+      </c>
+      <c r="I10" s="19">
+        <v>51788</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2.3210999999999999</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.2497000000000003</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2.9603000000000002</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2.7493000000000007</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.4805000000000006</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2.6071999999999997</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1.0047000000000001</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.3715</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="19">
+        <v>242024.22312305527</v>
+      </c>
+      <c r="C12" s="19">
+        <v>16562.388532006888</v>
+      </c>
+      <c r="D12" s="19">
+        <v>654990.22003376496</v>
+      </c>
+      <c r="E12" s="19">
+        <v>461331.8113</v>
+      </c>
+      <c r="F12" s="19">
+        <v>408604.52449999994</v>
+      </c>
+      <c r="G12" s="19">
+        <v>706069.65240000002</v>
+      </c>
+      <c r="H12" s="19">
+        <v>139470.07179999998</v>
+      </c>
+      <c r="I12" s="19">
+        <v>216614.39360000001</v>
+      </c>
+      <c r="J12" s="19">
+        <v>829273.03079999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6519,83 +7252,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="12">
         <v>14768</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="12">
         <v>1269</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="12">
         <v>18966</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="12">
         <v>21408</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="12">
         <v>6376</v>
       </c>
-      <c r="I151" s="4">
+      <c r="I151" s="12">
         <v>9229</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="12">
         <v>1130</v>
       </c>
-      <c r="K151" s="4">
+      <c r="K151" s="12">
         <v>7218</v>
       </c>
-      <c r="L151" s="4">
+      <c r="L151" s="12">
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="12">
         <v>-9698</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="11">
         <v>-412</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="12">
         <v>-6047</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="12">
         <v>-5900</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="11">
         <v>-579</v>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="11">
         <v>-109</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="11">
         <v>-4</v>
       </c>
-      <c r="K152" s="4">
+      <c r="K152" s="12">
         <v>-3751</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152" s="11">
         <v>-26529</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -6633,7 +7366,7 @@
         <v>55393</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>62</v>
       </c>
@@ -6671,7 +7404,7 @@
         <v>-3107</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>62</v>
       </c>
@@ -6709,7 +7442,7 @@
         <v>-314</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>62</v>
       </c>
@@ -6747,7 +7480,7 @@
         <v>-26129</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>62</v>
       </c>
@@ -6785,7 +7518,7 @@
         <v>25842</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -6823,7 +7556,7 @@
         <v>-10607</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -6861,45 +7594,45 @@
         <v>15580</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="12">
         <v>41286.86</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="12">
         <v>1143.07</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="12">
         <v>59090.22</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="12">
         <v>80276</v>
       </c>
-      <c r="H160" s="4">
+      <c r="H160" s="12">
         <v>99616</v>
       </c>
-      <c r="I160" s="4">
+      <c r="I160" s="12">
         <v>122660</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="12">
         <v>6890</v>
       </c>
-      <c r="K160" s="4">
+      <c r="K160" s="12">
         <v>70232</v>
       </c>
-      <c r="L160" s="3">
+      <c r="L160" s="11">
         <v>600644</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
@@ -6937,7 +7670,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>101</v>
       </c>
@@ -6975,7 +7708,7 @@
         <v>82847</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>101</v>
       </c>
@@ -7013,7 +7746,7 @@
         <v>-26349</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>101</v>
       </c>
@@ -7051,7 +7784,7 @@
         <v>56498</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>101</v>
       </c>
@@ -7089,7 +7822,7 @@
         <v>-3130</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>101</v>
       </c>
@@ -7127,7 +7860,7 @@
         <v>-548</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>101</v>
       </c>
@@ -7165,7 +7898,7 @@
         <v>-25700</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>101</v>
       </c>
@@ -7203,7 +7936,7 @@
         <v>27120</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>101</v>
       </c>
@@ -7241,7 +7974,7 @@
         <v>-10640</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>101</v>
       </c>
@@ -7286,7 +8019,7 @@
   <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
     <filterColumn colId="1">
       <filters>
-        <filter val="cascada_ppto"/>
+        <filter val="cascada"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="686" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC68F01-C912-4A1F-BD32-644C3D14559A}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8A82C5-3F3D-442C-90C3-96AD21F19888}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="-15750" windowWidth="23010" windowHeight="12210" activeTab="1" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
     <sheet name="indicadores" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicadores!$A$1:$L$170</definedName>
-    <definedName name="_xlcn.WorksheetConnection_indicadoresAL1" hidden="1">indicadores!$A:$L</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicadores!$A$1:$L$169</definedName>
+    <definedName name="_xlcn.WorksheetConnection_indicadoresAL" hidden="1">indicadores!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +65,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Intervalo" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_indicadoresAL1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_indicadoresAL"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="112">
   <si>
     <t>Cartões</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>RWA</t>
-  </si>
-  <si>
-    <t>RORWA</t>
   </si>
   <si>
     <t>cascada_ppto</t>
@@ -473,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -499,7 +496,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769ACD05-3684-49C7-901B-D3902D254985}" name="Tabela dinâmica1" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769ACD05-3684-49C7-901B-D3902D254985}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1199,322 +1194,322 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>125866</v>
+      </c>
+      <c r="C4">
+        <v>6464</v>
+      </c>
+      <c r="D4">
+        <v>462800</v>
+      </c>
+      <c r="E4">
+        <v>244965</v>
+      </c>
+      <c r="F4">
+        <v>206335</v>
+      </c>
+      <c r="G4">
+        <v>486100</v>
+      </c>
+      <c r="H4">
+        <v>123415</v>
+      </c>
+      <c r="I4">
+        <v>69334</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>41038.902023055278</v>
+      </c>
+      <c r="C5">
+        <v>2686.1388320068827</v>
+      </c>
+      <c r="D5">
+        <v>81167.259733764993</v>
+      </c>
+      <c r="E5">
+        <v>112993.06200000001</v>
+      </c>
+      <c r="F5">
+        <v>117078.04399999999</v>
+      </c>
+      <c r="G5">
+        <v>151823.04519999999</v>
+      </c>
+      <c r="H5">
+        <v>9396.0671000000002</v>
+      </c>
+      <c r="I5">
+        <v>78132.022100000002</v>
+      </c>
+      <c r="J5">
+        <v>712695.03079999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>7159</v>
+      </c>
+      <c r="C6">
+        <v>2921</v>
+      </c>
+      <c r="D6">
+        <v>22530</v>
+      </c>
+      <c r="E6">
+        <v>34348</v>
+      </c>
+      <c r="F6">
+        <v>17396</v>
+      </c>
+      <c r="G6">
+        <v>24946</v>
+      </c>
+      <c r="H6">
+        <v>2500</v>
+      </c>
+      <c r="I6">
+        <v>7791</v>
+      </c>
+      <c r="J6">
+        <v>116578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>5311</v>
+      </c>
+      <c r="C7">
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>10270</v>
+      </c>
+      <c r="E7">
+        <v>4737</v>
+      </c>
+      <c r="F7">
+        <v>2556</v>
+      </c>
+      <c r="G7">
+        <v>884</v>
+      </c>
+      <c r="H7">
+        <v>790</v>
+      </c>
+      <c r="I7">
+        <v>133</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>12426</v>
+      </c>
+      <c r="C8">
+        <v>1218</v>
+      </c>
+      <c r="D8">
+        <v>14438</v>
+      </c>
+      <c r="E8">
+        <v>14269</v>
+      </c>
+      <c r="F8">
+        <v>3702</v>
+      </c>
+      <c r="G8">
+        <v>3071</v>
+      </c>
+      <c r="H8">
+        <v>667</v>
+      </c>
+      <c r="I8">
+        <v>5545</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>9138</v>
+      </c>
+      <c r="C9">
+        <v>562</v>
+      </c>
+      <c r="D9">
+        <v>5433</v>
+      </c>
+      <c r="E9">
+        <v>3026</v>
+      </c>
+      <c r="F9">
+        <v>204</v>
+      </c>
+      <c r="G9">
+        <v>2210</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3891</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>41083</v>
+      </c>
+      <c r="C10">
+        <v>2548</v>
+      </c>
+      <c r="D10">
+        <v>58349</v>
+      </c>
+      <c r="E10">
+        <v>46991</v>
+      </c>
+      <c r="F10">
+        <v>61331</v>
+      </c>
+      <c r="G10">
+        <v>37033</v>
+      </c>
+      <c r="H10">
+        <v>2696</v>
+      </c>
+      <c r="I10">
+        <v>51788</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2.3210999999999999</v>
+      </c>
+      <c r="C11">
+        <v>2.2497000000000003</v>
+      </c>
+      <c r="D11">
+        <v>2.9603000000000002</v>
+      </c>
+      <c r="E11">
+        <v>2.7493000000000007</v>
+      </c>
+      <c r="F11">
+        <v>2.4805000000000006</v>
+      </c>
+      <c r="G11">
+        <v>2.6071999999999997</v>
+      </c>
+      <c r="H11">
+        <v>1.0047000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3715</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="19">
-        <v>125866</v>
-      </c>
-      <c r="C4" s="19">
-        <v>6464</v>
-      </c>
-      <c r="D4" s="19">
-        <v>462800</v>
-      </c>
-      <c r="E4" s="19">
-        <v>244965</v>
-      </c>
-      <c r="F4" s="19">
-        <v>206335</v>
-      </c>
-      <c r="G4" s="19">
-        <v>486100</v>
-      </c>
-      <c r="H4" s="19">
-        <v>123415</v>
-      </c>
-      <c r="I4" s="19">
-        <v>69334</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="19">
-        <v>41038.902023055278</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2686.1388320068827</v>
-      </c>
-      <c r="D5" s="19">
-        <v>81167.259733764993</v>
-      </c>
-      <c r="E5" s="19">
-        <v>112993.06200000001</v>
-      </c>
-      <c r="F5" s="19">
-        <v>117078.04399999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>151823.04519999999</v>
-      </c>
-      <c r="H5" s="19">
-        <v>9396.0671000000002</v>
-      </c>
-      <c r="I5" s="19">
-        <v>78132.022100000002</v>
-      </c>
-      <c r="J5" s="19">
-        <v>712695.03079999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="19">
-        <v>7159</v>
-      </c>
-      <c r="C6" s="19">
-        <v>2921</v>
-      </c>
-      <c r="D6" s="19">
-        <v>22530</v>
-      </c>
-      <c r="E6" s="19">
-        <v>34348</v>
-      </c>
-      <c r="F6" s="19">
-        <v>17396</v>
-      </c>
-      <c r="G6" s="19">
-        <v>24946</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I6" s="19">
-        <v>7791</v>
-      </c>
-      <c r="J6" s="19">
-        <v>116578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="19">
-        <v>5311</v>
-      </c>
-      <c r="C7" s="19">
-        <v>161</v>
-      </c>
-      <c r="D7" s="19">
-        <v>10270</v>
-      </c>
-      <c r="E7" s="19">
-        <v>4737</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2556</v>
-      </c>
-      <c r="G7" s="19">
-        <v>884</v>
-      </c>
-      <c r="H7" s="19">
-        <v>790</v>
-      </c>
-      <c r="I7" s="19">
-        <v>133</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19">
-        <v>12426</v>
-      </c>
-      <c r="C8" s="19">
-        <v>1218</v>
-      </c>
-      <c r="D8" s="19">
-        <v>14438</v>
-      </c>
-      <c r="E8" s="19">
-        <v>14269</v>
-      </c>
-      <c r="F8" s="19">
-        <v>3702</v>
-      </c>
-      <c r="G8" s="19">
-        <v>3071</v>
-      </c>
-      <c r="H8" s="19">
-        <v>667</v>
-      </c>
-      <c r="I8" s="19">
-        <v>5545</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="19">
-        <v>9138</v>
-      </c>
-      <c r="C9" s="19">
-        <v>562</v>
-      </c>
-      <c r="D9" s="19">
-        <v>5433</v>
-      </c>
-      <c r="E9" s="19">
-        <v>3026</v>
-      </c>
-      <c r="F9" s="19">
-        <v>204</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2210</v>
-      </c>
-      <c r="H9" s="19">
-        <v>5</v>
-      </c>
-      <c r="I9" s="19">
-        <v>3891</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="19">
-        <v>41083</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2548</v>
-      </c>
-      <c r="D10" s="19">
-        <v>58349</v>
-      </c>
-      <c r="E10" s="19">
-        <v>46991</v>
-      </c>
-      <c r="F10" s="19">
-        <v>61331</v>
-      </c>
-      <c r="G10" s="19">
-        <v>37033</v>
-      </c>
-      <c r="H10" s="19">
-        <v>2696</v>
-      </c>
-      <c r="I10" s="19">
-        <v>51788</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="19">
-        <v>2.3210999999999999</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2.2497000000000003</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2.9603000000000002</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2.7493000000000007</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2.4805000000000006</v>
-      </c>
-      <c r="G11" s="19">
-        <v>2.6071999999999997</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1.0047000000000001</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0.3715</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="B12">
         <v>242024.22312305527</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12">
         <v>16562.388532006888</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12">
         <v>654990.22003376496</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12">
         <v>461331.8113</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12">
         <v>408604.52449999994</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12">
         <v>706069.65240000002</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12">
         <v>139470.07179999998</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12">
         <v>216614.39360000001</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12">
         <v>829273.03079999995</v>
       </c>
     </row>
@@ -1526,11 +1521,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:XFD160"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2082,40 +2075,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <v>3270</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>4321</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>3297</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>6397</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>80</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>3824</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2652,40 +2645,40 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>1.34E-2</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3224,40 +3217,40 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
         <v>57</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>165</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>132</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>955</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <v>1</v>
       </c>
-      <c r="K45" s="12">
-        <v>0</v>
-      </c>
-      <c r="L45" s="10">
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
         <v>0</v>
       </c>
       <c r="N45" s="3"/>
@@ -3757,40 +3750,40 @@
       </c>
     </row>
     <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
         <v>261</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>385</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="10">
         <v>78</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
         <v>262</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="10">
         <v>2</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <v>315</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4327,40 +4320,40 @@
       </c>
     </row>
     <row r="74" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="11">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0</v>
-      </c>
-      <c r="F74" s="12">
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
         <v>7494</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>3778</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>2874</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <v>3794</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="10">
         <v>29</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="11">
         <v>1233</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="14">
         <v>0</v>
       </c>
     </row>
@@ -7252,79 +7245,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
+    <row r="151" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="11">
         <v>14768</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="11">
         <v>1269</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="11">
         <v>18966</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="11">
         <v>21408</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="11">
         <v>6376</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="11">
         <v>9229</v>
       </c>
-      <c r="J151" s="12">
+      <c r="J151" s="11">
         <v>1130</v>
       </c>
-      <c r="K151" s="12">
+      <c r="K151" s="11">
         <v>7218</v>
       </c>
-      <c r="L151" s="12">
+      <c r="L151" s="11">
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+    <row r="152" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="11">
         <v>-9698</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="10">
         <v>-412</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="11">
         <v>-6047</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="11">
         <v>-5900</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H152" s="10">
         <v>-579</v>
       </c>
-      <c r="I152" s="11">
+      <c r="I152" s="10">
         <v>-109</v>
       </c>
-      <c r="J152" s="11">
+      <c r="J152" s="10">
         <v>-4</v>
       </c>
-      <c r="K152" s="12">
+      <c r="K152" s="11">
         <v>-3751</v>
       </c>
-      <c r="L152" s="11">
+      <c r="L152" s="10">
         <v>-26529</v>
       </c>
     </row>
@@ -7360,7 +7353,7 @@
         <v>1126</v>
       </c>
       <c r="K153" s="4">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="L153" s="4">
         <v>55393</v>
@@ -7494,10 +7487,10 @@
         <v>-1848</v>
       </c>
       <c r="E157" s="3">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F157" s="4">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="G157" s="4">
         <v>7859</v>
@@ -7512,10 +7505,10 @@
         <v>604</v>
       </c>
       <c r="K157" s="4">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="L157" s="3">
-        <v>25842</v>
+        <v>25843</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -7544,7 +7537,7 @@
         <v>-1720</v>
       </c>
       <c r="I158" s="4">
-        <v>2163</v>
+        <v>-2163</v>
       </c>
       <c r="J158" s="3">
         <v>-216</v>
@@ -7573,7 +7566,7 @@
         <v>176</v>
       </c>
       <c r="F159" s="4">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="G159" s="4">
         <v>4675</v>
@@ -7588,435 +7581,408 @@
         <v>388</v>
       </c>
       <c r="K159" s="4">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L159" s="3">
-        <v>15580</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
+        <v>15236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="11">
         <v>41286.86</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="11">
         <v>1143.07</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="11">
         <v>59090.22</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="11">
         <v>80276</v>
       </c>
-      <c r="H160" s="12">
+      <c r="H160" s="11">
         <v>99616</v>
       </c>
-      <c r="I160" s="12">
+      <c r="I160" s="11">
         <v>122660</v>
       </c>
-      <c r="J160" s="12">
+      <c r="J160" s="11">
         <v>6890</v>
       </c>
-      <c r="K160" s="12">
+      <c r="K160" s="11">
         <v>70232</v>
       </c>
-      <c r="L160" s="11">
+      <c r="L160" s="10">
         <v>600644</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D161" s="9">
-        <v>4.2023055277151132E-2</v>
-      </c>
-      <c r="E161" s="9">
-        <v>6.8832006883200694E-2</v>
-      </c>
-      <c r="F161" s="9">
-        <v>3.9733764991940548E-2</v>
-      </c>
-      <c r="G161" s="9">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H161" s="9">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I161" s="9">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="J161" s="9">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="K161" s="9">
-        <v>2.2099999999999998E-2</v>
-      </c>
-      <c r="L161" s="9">
-        <v>3.0800000000000001E-2</v>
+        <v>95</v>
+      </c>
+      <c r="D161" s="4">
+        <v>15351</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1666</v>
+      </c>
+      <c r="F161" s="4">
+        <v>18511</v>
+      </c>
+      <c r="G161" s="4">
+        <v>21926</v>
+      </c>
+      <c r="H161" s="4">
+        <v>6302</v>
+      </c>
+      <c r="I161" s="4">
+        <v>9113</v>
+      </c>
+      <c r="J161" s="4">
+        <v>1124</v>
+      </c>
+      <c r="K161" s="4">
+        <v>7268</v>
+      </c>
+      <c r="L161" s="4">
+        <v>82847</v>
       </c>
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D162" s="4">
-        <v>15351</v>
-      </c>
-      <c r="E162" s="4">
-        <v>1666</v>
+        <v>-9771</v>
+      </c>
+      <c r="E162" s="3">
+        <v>-390</v>
       </c>
       <c r="F162" s="4">
-        <v>18511</v>
+        <v>-5841</v>
       </c>
       <c r="G162" s="4">
-        <v>21926</v>
-      </c>
-      <c r="H162" s="4">
-        <v>6302</v>
-      </c>
-      <c r="I162" s="4">
-        <v>9113</v>
-      </c>
-      <c r="J162" s="4">
-        <v>1124</v>
+        <v>-5911</v>
+      </c>
+      <c r="H162" s="3">
+        <v>-493</v>
+      </c>
+      <c r="I162" s="3">
+        <v>-115</v>
+      </c>
+      <c r="J162" s="3">
+        <v>-15</v>
       </c>
       <c r="K162" s="4">
-        <v>7268</v>
+        <v>-3811</v>
       </c>
       <c r="L162" s="4">
-        <v>82847</v>
+        <v>-26349</v>
       </c>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D163" s="4">
-        <v>-9771</v>
-      </c>
-      <c r="E163" s="3">
-        <v>-390</v>
+        <v>5580</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1276</v>
       </c>
       <c r="F163" s="4">
-        <v>-5841</v>
+        <v>12669</v>
       </c>
       <c r="G163" s="4">
-        <v>-5911</v>
-      </c>
-      <c r="H163" s="3">
-        <v>-493</v>
-      </c>
-      <c r="I163" s="3">
-        <v>-115</v>
-      </c>
-      <c r="J163" s="3">
-        <v>-15</v>
+        <v>16014</v>
+      </c>
+      <c r="H163" s="4">
+        <v>5809</v>
+      </c>
+      <c r="I163" s="4">
+        <v>8998</v>
+      </c>
+      <c r="J163" s="4">
+        <v>1109</v>
       </c>
       <c r="K163" s="4">
-        <v>-3811</v>
+        <v>3457</v>
       </c>
       <c r="L163" s="4">
-        <v>-26349</v>
+        <v>56498</v>
       </c>
     </row>
     <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D164" s="4">
-        <v>5580</v>
-      </c>
-      <c r="E164" s="4">
-        <v>1276</v>
-      </c>
-      <c r="F164" s="4">
-        <v>12669</v>
+        <v>-1298</v>
+      </c>
+      <c r="E164" s="3">
+        <v>-95</v>
+      </c>
+      <c r="F164" s="3">
+        <v>-479</v>
       </c>
       <c r="G164" s="4">
-        <v>16014</v>
-      </c>
-      <c r="H164" s="4">
-        <v>5809</v>
-      </c>
-      <c r="I164" s="4">
-        <v>8998</v>
-      </c>
-      <c r="J164" s="4">
-        <v>1109</v>
-      </c>
-      <c r="K164" s="4">
-        <v>3457</v>
+        <v>-1093</v>
+      </c>
+      <c r="H164" s="3">
+        <v>-19</v>
+      </c>
+      <c r="I164" s="3">
+        <v>-21</v>
+      </c>
+      <c r="J164" s="3">
+        <v>-2</v>
+      </c>
+      <c r="K164" s="3">
+        <v>-297</v>
       </c>
       <c r="L164" s="4">
-        <v>56498</v>
+        <v>-3130</v>
       </c>
     </row>
     <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D165" s="4">
-        <v>-1298</v>
+        <v>90</v>
+      </c>
+      <c r="D165" s="3">
+        <v>-144</v>
       </c>
       <c r="E165" s="3">
-        <v>-95</v>
+        <v>-8</v>
       </c>
       <c r="F165" s="3">
-        <v>-479</v>
-      </c>
-      <c r="G165" s="4">
-        <v>-1093</v>
+        <v>-163</v>
+      </c>
+      <c r="G165" s="3">
+        <v>-220</v>
       </c>
       <c r="H165" s="3">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="I165" s="3">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J165" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K165" s="3">
-        <v>-297</v>
-      </c>
-      <c r="L165" s="4">
-        <v>-3130</v>
+        <v>0</v>
+      </c>
+      <c r="L165" s="3">
+        <v>-548</v>
       </c>
     </row>
     <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D166" s="3">
-        <v>-144</v>
+        <v>91</v>
+      </c>
+      <c r="D166" s="4">
+        <v>-5717</v>
       </c>
       <c r="E166" s="3">
-        <v>-8</v>
-      </c>
-      <c r="F166" s="3">
-        <v>-163</v>
-      </c>
-      <c r="G166" s="3">
-        <v>-220</v>
+        <v>-440</v>
+      </c>
+      <c r="F166" s="4">
+        <v>-7347</v>
+      </c>
+      <c r="G166" s="4">
+        <v>-6448</v>
       </c>
       <c r="H166" s="3">
-        <v>0</v>
-      </c>
-      <c r="I166" s="3">
-        <v>0</v>
+        <v>-803</v>
+      </c>
+      <c r="I166" s="4">
+        <v>-2308</v>
       </c>
       <c r="J166" s="3">
-        <v>0</v>
-      </c>
-      <c r="K166" s="3">
-        <v>0</v>
-      </c>
-      <c r="L166" s="3">
-        <v>-548</v>
+        <v>-500</v>
+      </c>
+      <c r="K166" s="4">
+        <v>-1148</v>
+      </c>
+      <c r="L166" s="4">
+        <v>-25700</v>
       </c>
     </row>
     <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D167" s="4">
-        <v>-5717</v>
+        <v>1579</v>
       </c>
       <c r="E167" s="3">
-        <v>-440</v>
+        <v>733</v>
       </c>
       <c r="F167" s="4">
-        <v>-7347</v>
+        <v>4680</v>
       </c>
       <c r="G167" s="4">
-        <v>-6448</v>
-      </c>
-      <c r="H167" s="3">
-        <v>-803</v>
+        <v>8253</v>
+      </c>
+      <c r="H167" s="4">
+        <v>4987</v>
       </c>
       <c r="I167" s="4">
-        <v>-2308</v>
+        <v>6669</v>
       </c>
       <c r="J167" s="3">
-        <v>-500</v>
+        <v>607</v>
       </c>
       <c r="K167" s="4">
-        <v>-1148</v>
+        <v>2012</v>
       </c>
       <c r="L167" s="4">
-        <v>-25700</v>
+        <v>27120</v>
       </c>
     </row>
     <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D168" s="4">
-        <v>1579</v>
+        <v>93</v>
+      </c>
+      <c r="D168" s="3">
+        <v>-59</v>
       </c>
       <c r="E168" s="3">
-        <v>733</v>
+        <v>-277</v>
       </c>
       <c r="F168" s="4">
-        <v>4680</v>
+        <v>-2090</v>
       </c>
       <c r="G168" s="4">
-        <v>8253</v>
+        <v>-3213</v>
       </c>
       <c r="H168" s="4">
-        <v>4987</v>
+        <v>-1687</v>
       </c>
       <c r="I168" s="4">
-        <v>6669</v>
+        <v>-2232</v>
       </c>
       <c r="J168" s="3">
-        <v>607</v>
-      </c>
-      <c r="K168" s="4">
-        <v>2012</v>
+        <v>-215</v>
+      </c>
+      <c r="K168" s="3">
+        <v>-851</v>
       </c>
       <c r="L168" s="4">
-        <v>27120</v>
+        <v>-10640</v>
       </c>
     </row>
     <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D169" s="3">
-        <v>-59</v>
+        <v>94</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1638</v>
       </c>
       <c r="E169" s="3">
-        <v>-277</v>
+        <v>456</v>
       </c>
       <c r="F169" s="4">
-        <v>-2090</v>
+        <v>2590</v>
       </c>
       <c r="G169" s="4">
-        <v>-3213</v>
+        <v>5040</v>
       </c>
       <c r="H169" s="4">
-        <v>-1687</v>
+        <v>3300</v>
       </c>
       <c r="I169" s="4">
-        <v>-2232</v>
+        <v>4842</v>
       </c>
       <c r="J169" s="3">
-        <v>-215</v>
-      </c>
-      <c r="K169" s="3">
-        <v>-851</v>
+        <v>392</v>
+      </c>
+      <c r="K169" s="4">
+        <v>1161</v>
       </c>
       <c r="L169" s="4">
-        <v>-10640</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D170" s="4">
-        <v>1638</v>
-      </c>
-      <c r="E170" s="3">
-        <v>456</v>
-      </c>
-      <c r="F170" s="4">
-        <v>2590</v>
-      </c>
-      <c r="G170" s="4">
-        <v>5040</v>
-      </c>
-      <c r="H170" s="4">
-        <v>3300</v>
-      </c>
-      <c r="I170" s="4">
-        <v>4842</v>
-      </c>
-      <c r="J170" s="3">
-        <v>392</v>
-      </c>
-      <c r="K170" s="4">
-        <v>1161</v>
-      </c>
-      <c r="L170" s="4">
         <v>16480</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E181" s="16"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L170" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
+  <autoFilter ref="A1:L169" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
     <filterColumn colId="1">
       <filters>
         <filter val="cascada"/>

--- a/base_indicadores.xlsx
+++ b/base_indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/projetos/simulador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="711" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8A82C5-3F3D-442C-90C3-96AD21F19888}"/>
+  <xr:revisionPtr revIDLastSave="719" documentId="8_{05C746AA-D6C6-4A60-916E-33F0E5947F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B43066A-0F36-44AE-B59A-F27C54D44661}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26B921F5-7DA8-4D68-B3CE-1C2BB46017C1}"/>
   </bookViews>
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicadores!$A$1:$L$169</definedName>
-    <definedName name="_xlcn.WorksheetConnection_indicadoresAL" hidden="1">indicadores!$A:$L</definedName>
+    <definedName name="_xlcn.WorksheetConnection_indicadoresAL1" hidden="1">indicadores!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +65,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Intervalo" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_indicadoresAL"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_indicadoresAL1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -416,10 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,13 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -466,11 +456,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,17 +503,13 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,7 +692,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769ACD05-3684-49C7-901B-D3902D254985}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769ACD05-3684-49C7-901B-D3902D254985}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1194,7 +1179,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B3" t="s">
@@ -1226,7 +1211,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -1258,7 +1243,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B5">
@@ -1290,7 +1275,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B6">
@@ -1322,7 +1307,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B7">
@@ -1354,7 +1339,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -1386,7 +1371,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B9">
@@ -1418,7 +1403,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B10">
@@ -1450,7 +1435,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -1482,7 +1467,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B12">
@@ -1521,9 +1506,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2720,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2731,19 +2718,19 @@
         <v>71</v>
       </c>
       <c r="D32" s="4">
-        <v>477</v>
+        <v>-477</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F32" s="4">
-        <v>327</v>
+        <v>-327</v>
       </c>
       <c r="G32" s="4">
-        <v>641</v>
+        <v>-641</v>
       </c>
       <c r="H32" s="3">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2758,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2769,25 +2756,25 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>3317</v>
+        <v>-3317</v>
       </c>
       <c r="E33" s="3">
-        <v>181</v>
+        <v>-181</v>
       </c>
       <c r="F33" s="4">
-        <v>1585</v>
+        <v>-1585</v>
       </c>
       <c r="G33" s="4">
-        <v>605</v>
+        <v>-605</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2796,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2807,13 +2794,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="4">
-        <v>2917</v>
+        <v>-2917</v>
       </c>
       <c r="E34" s="3">
-        <v>34</v>
+        <v>-34</v>
       </c>
       <c r="F34" s="4">
-        <v>2269</v>
+        <v>-2269</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -2834,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2845,13 +2832,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>1957</v>
+        <v>-1957</v>
       </c>
       <c r="E35" s="4">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="F35" s="4">
-        <v>552</v>
+        <v>-552</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2872,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2883,19 +2870,19 @@
         <v>2</v>
       </c>
       <c r="D36" s="4">
-        <v>68</v>
+        <v>-68</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>208</v>
+        <v>-208</v>
       </c>
       <c r="G36" s="4">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="H36" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -2910,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2921,16 +2908,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="4">
-        <v>380</v>
+        <v>-380</v>
       </c>
       <c r="E37" s="3">
-        <v>28</v>
+        <v>-28</v>
       </c>
       <c r="F37" s="4">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="G37" s="4">
-        <v>273</v>
+        <v>-273</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
@@ -2942,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <v>3891</v>
+        <v>-3891</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2959,22 +2946,22 @@
         <v>6</v>
       </c>
       <c r="D38" s="3">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="G38" s="4">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H38" s="4">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="I38" s="4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -2986,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3003,16 +2990,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="4">
-        <v>1116</v>
+        <v>-1116</v>
       </c>
       <c r="H39" s="4">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="I39" s="4">
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -3024,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -3035,13 +3022,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="3">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="E40" s="3">
-        <v>213</v>
+        <v>-213</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -3062,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -3079,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="G41" s="4">
-        <v>41</v>
+        <v>-41</v>
       </c>
       <c r="H41" s="4">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I41" s="4">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3100,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -3117,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="G42" s="4">
-        <v>154</v>
+        <v>-154</v>
       </c>
       <c r="H42" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J42" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3138,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -3158,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="H43" s="4">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="I43" s="4">
-        <v>897</v>
+        <v>-897</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3177,7 +3164,7 @@
       </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -3200,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I44" s="4">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3216,7 +3203,7 @@
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
@@ -3233,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>57</v>
+        <v>-57</v>
       </c>
       <c r="G45" s="11">
-        <v>165</v>
+        <v>-165</v>
       </c>
       <c r="H45" s="11">
-        <v>132</v>
+        <v>-132</v>
       </c>
       <c r="I45" s="11">
-        <v>955</v>
+        <v>-955</v>
       </c>
       <c r="J45" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="11">
         <v>0</v>
@@ -7245,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>62</v>
       </c>
@@ -7283,7 +7270,7 @@
         <v>81922</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>62</v>
       </c>
@@ -7321,7 +7308,7 @@
         <v>-26529</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -7359,7 +7346,7 @@
         <v>55393</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>62</v>
       </c>
@@ -7397,7 +7384,7 @@
         <v>-3107</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>62</v>
       </c>
@@ -7435,7 +7422,7 @@
         <v>-314</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>62</v>
       </c>
@@ -7473,7 +7460,7 @@
         <v>-26129</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>62</v>
       </c>
@@ -7511,7 +7498,7 @@
         <v>25843</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -7549,7 +7536,7 @@
         <v>-10607</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -7587,7 +7574,7 @@
         <v>15236</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>62</v>
       </c>
@@ -7978,14 +7965,11 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E180" s="15"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:L169" xr:uid="{98274D42-0107-497E-BE66-791C82A4E472}">
     <filterColumn colId="1">
       <filters>
-        <filter val="cascada"/>
+        <filter val="provisao"/>
       </filters>
     </filterColumn>
   </autoFilter>
